--- a/results/mp/logistic/corona/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-topk-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,85 +43,100 @@
     <t>forced</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
     <t>died</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>strong</t>
   </si>
   <si>
     <t>good</t>
@@ -136,51 +151,63 @@
     <t>heroes</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>relief</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>save</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>gt</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>share</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
@@ -188,6 +215,9 @@
   </si>
   <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
 </sst>
 </file>
@@ -545,7 +575,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -553,10 +583,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K3">
         <v>0.9565217391304348</v>
@@ -664,13 +694,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7397260273972602</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C4">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -682,19 +712,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -706,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -714,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7368421052631579</v>
+        <v>0.7294520547945206</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -732,19 +762,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>79</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -756,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -764,13 +794,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5769230769230769</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -782,19 +812,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -806,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,16 +865,16 @@
         <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8484848484848485</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -856,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -864,7 +894,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.5405405405405406</v>
       </c>
       <c r="C8">
         <v>20</v>
@@ -882,19 +912,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -906,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,16 +965,16 @@
         <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.825065274151436</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>316</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -956,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -964,13 +994,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4666666666666667</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -982,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8113207547169812</v>
+        <v>0.8328981723237598</v>
       </c>
       <c r="L10">
-        <v>86</v>
+        <v>319</v>
       </c>
       <c r="M10">
-        <v>86</v>
+        <v>319</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1006,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1014,13 +1044,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4594594594594595</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1032,19 +1062,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.8076923076923077</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L11">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="M11">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1056,7 +1086,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1064,13 +1094,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4232804232804233</v>
+        <v>0.3372093023255814</v>
       </c>
       <c r="C12">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="D12">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1082,19 +1112,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>109</v>
+        <v>342</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K12">
-        <v>0.8055555555555556</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L12">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="M12">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1106,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,13 +1144,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3449612403100775</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C13">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>178</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1132,19 +1162,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>338</v>
+        <v>37</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7890625</v>
       </c>
       <c r="L13">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="M13">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1156,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1164,13 +1194,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3137254901960784</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1182,19 +1212,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.7926829268292683</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L14">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1206,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1214,13 +1244,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.28</v>
+        <v>0.2372881355932203</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1232,19 +1262,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.7734375</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1256,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1264,13 +1294,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2080536912751678</v>
+        <v>0.2133333333333333</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1282,176 +1312,224 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>118</v>
+        <v>59</v>
       </c>
       <c r="J16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16">
+        <v>0.7777777777777778</v>
+      </c>
+      <c r="L16">
+        <v>28</v>
+      </c>
+      <c r="M16">
+        <v>28</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>0.1812080536912752</v>
+      </c>
+      <c r="C17">
+        <v>27</v>
+      </c>
+      <c r="D17">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="b">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>122</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L17">
+        <v>45</v>
+      </c>
+      <c r="M17">
+        <v>45</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>0.004832474226804124</v>
+      </c>
+      <c r="C18">
+        <v>15</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>0.17</v>
+      </c>
+      <c r="F18">
+        <v>0.83</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3089</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19">
+        <v>0.7625</v>
+      </c>
+      <c r="L19">
+        <v>122</v>
+      </c>
+      <c r="M19">
+        <v>122</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20">
+        <v>0.7535211267605634</v>
+      </c>
+      <c r="L20">
+        <v>107</v>
+      </c>
+      <c r="M20">
+        <v>107</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="J21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K21">
+        <v>0.75</v>
+      </c>
+      <c r="L21">
         <v>36</v>
       </c>
-      <c r="K16">
-        <v>0.7625</v>
-      </c>
-      <c r="L16">
-        <v>122</v>
-      </c>
-      <c r="M16">
-        <v>122</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="10:17">
-      <c r="J17" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17">
-        <v>0.7605633802816901</v>
-      </c>
-      <c r="L17">
-        <v>108</v>
-      </c>
-      <c r="M17">
-        <v>108</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="10:17">
-      <c r="J18" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18">
-        <v>0.7291666666666666</v>
-      </c>
-      <c r="L18">
+      <c r="M21">
+        <v>36</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
+      <c r="J22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K22">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L22">
         <v>35</v>
       </c>
-      <c r="M18">
+      <c r="M22">
         <v>35</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="10:17">
-      <c r="J19" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19">
-        <v>0.723404255319149</v>
-      </c>
-      <c r="L19">
-        <v>34</v>
-      </c>
-      <c r="M19">
-        <v>34</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="10:17">
-      <c r="J20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K20">
-        <v>0.6984126984126984</v>
-      </c>
-      <c r="L20">
-        <v>44</v>
-      </c>
-      <c r="M20">
-        <v>44</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="10:17">
-      <c r="J21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K21">
-        <v>0.64</v>
-      </c>
-      <c r="L21">
-        <v>32</v>
-      </c>
-      <c r="M21">
-        <v>32</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="10:17">
-      <c r="J22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K22">
-        <v>0.6296296296296297</v>
-      </c>
-      <c r="L22">
-        <v>17</v>
-      </c>
-      <c r="M22">
-        <v>17</v>
-      </c>
       <c r="N22">
         <v>1</v>
       </c>
@@ -1462,21 +1540,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="10:17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.6088235294117647</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L23">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>207</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1488,21 +1566,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="10:17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.6071428571428571</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L24">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M24">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1517,18 +1595,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="10:17">
+    <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L25">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1540,151 +1618,151 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="10:17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.5638297872340425</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L26">
+        <v>18</v>
+      </c>
+      <c r="M26">
+        <v>18</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="J27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27">
+        <v>0.6349206349206349</v>
+      </c>
+      <c r="L27">
+        <v>40</v>
+      </c>
+      <c r="M27">
+        <v>40</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K28">
+        <v>0.6205882352941177</v>
+      </c>
+      <c r="L28">
+        <v>211</v>
+      </c>
+      <c r="M28">
+        <v>211</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="J29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29">
+        <v>0.62</v>
+      </c>
+      <c r="L29">
+        <v>31</v>
+      </c>
+      <c r="M29">
+        <v>31</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="J30" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K30">
+        <v>0.6046511627906976</v>
+      </c>
+      <c r="L30">
+        <v>26</v>
+      </c>
+      <c r="M30">
+        <v>26</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="J31" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M26">
-        <v>53</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="10:17">
-      <c r="J27" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="K27">
-        <v>0.5606694560669456</v>
-      </c>
-      <c r="L27">
-        <v>134</v>
-      </c>
-      <c r="M27">
-        <v>134</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="10:17">
-      <c r="J28" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="K28">
-        <v>0.5581395348837209</v>
-      </c>
-      <c r="L28">
-        <v>24</v>
-      </c>
-      <c r="M28">
-        <v>24</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="10:17">
-      <c r="J29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29">
-        <v>0.5538461538461539</v>
-      </c>
-      <c r="L29">
-        <v>36</v>
-      </c>
-      <c r="M29">
-        <v>36</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="10:17">
-      <c r="J30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="K30">
-        <v>0.5423728813559322</v>
-      </c>
-      <c r="L30">
-        <v>160</v>
-      </c>
-      <c r="M30">
-        <v>160</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="10:17">
-      <c r="J31" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="K31">
-        <v>0.5</v>
+        <v>0.5909090909090909</v>
       </c>
       <c r="L31">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="M31">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1696,21 +1774,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="10:17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>0.4642857142857143</v>
+        <v>0.5851063829787234</v>
       </c>
       <c r="L32">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="M32">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1722,21 +1800,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.449438202247191</v>
+        <v>0.575</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1748,21 +1826,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>49</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.375</v>
+        <v>0.5648535564853556</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1774,21 +1852,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>25</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.2745098039215687</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L35">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="M35">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1800,21 +1878,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.2465753424657534</v>
+        <v>0.5525423728813559</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>163</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1826,33 +1904,241 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>55</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>0.1666666666666667</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L37">
+        <v>18</v>
+      </c>
+      <c r="M37">
+        <v>18</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K38">
+        <v>0.5416666666666666</v>
+      </c>
+      <c r="L38">
         <v>13</v>
       </c>
-      <c r="M37">
+      <c r="M38">
         <v>13</v>
       </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K39">
+        <v>0.4943820224719101</v>
+      </c>
+      <c r="L39">
+        <v>44</v>
+      </c>
+      <c r="M39">
+        <v>44</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="L40">
+        <v>20</v>
+      </c>
+      <c r="M40">
+        <v>20</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="10:17">
+      <c r="J41" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K41">
+        <v>0.4714285714285714</v>
+      </c>
+      <c r="L41">
+        <v>33</v>
+      </c>
+      <c r="M41">
+        <v>33</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="10:17">
+      <c r="J42" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K42">
+        <v>0.3725490196078431</v>
+      </c>
+      <c r="L42">
+        <v>19</v>
+      </c>
+      <c r="M42">
+        <v>19</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="10:17">
+      <c r="J43" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="K43">
+        <v>0.273972602739726</v>
+      </c>
+      <c r="L43">
+        <v>20</v>
+      </c>
+      <c r="M43">
+        <v>20</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="10:17">
+      <c r="J44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K44">
+        <v>0.2564102564102564</v>
+      </c>
+      <c r="L44">
+        <v>20</v>
+      </c>
+      <c r="M44">
+        <v>20</v>
+      </c>
+      <c r="N44">
+        <v>1</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="10:17">
+      <c r="J45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45">
+        <v>0.2372881355932203</v>
+      </c>
+      <c r="L45">
+        <v>14</v>
+      </c>
+      <c r="M45">
+        <v>14</v>
+      </c>
+      <c r="N45">
+        <v>1</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
